--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>次回接種予定日</t>
+  </si>
+  <si>
+    <t>次回接種を予定している日、期限</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -669,7 +675,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="49.94140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -835,10 +841,10 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -898,10 +904,10 @@
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -909,7 +915,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -920,7 +926,7 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>75</v>
@@ -932,13 +938,13 @@
         <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -989,13 +995,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1004,12 +1010,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1032,13 +1038,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1077,19 +1083,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1101,7 +1107,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1109,7 +1115,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1117,10 +1123,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1132,16 +1138,16 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1191,13 +1197,13 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1206,12 +1212,12 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1222,7 +1228,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>75</v>
@@ -1234,13 +1240,13 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1291,22 +1297,22 @@
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
